--- a/regionseng/4/business sector/by ownership.xlsx
+++ b/regionseng/4/business sector/by ownership.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA0D568-48C1-40A1-B5ED-23A5ED0E36C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="150" windowWidth="17565" windowHeight="8010"/>
+    <workbookView xWindow="345" yWindow="555" windowWidth="14235" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -187,7 +188,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,6 +279,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -313,6 +331,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,11 +523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -503,7 +538,7 @@
     <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -512,10 +547,10 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -524,10 +559,10 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2006</v>
@@ -574,8 +609,14 @@
       <c r="P5" s="3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="3">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -624,8 +665,14 @@
       <c r="P6" s="4">
         <v>5593.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="4">
+        <v>7484.5208029942178</v>
+      </c>
+      <c r="R6" s="4">
+        <v>10985.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -674,8 +721,14 @@
       <c r="P7" s="5">
         <v>4231.6000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5">
+        <v>5183.6921520926362</v>
+      </c>
+      <c r="R7" s="5">
+        <v>7210.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -724,8 +777,14 @@
       <c r="P8" s="5">
         <v>1319.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5">
+        <v>2214.4639829015809</v>
+      </c>
+      <c r="R8" s="5">
+        <v>3604.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -774,13 +833,20 @@
       <c r="P9" s="5">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5">
+        <v>86.364668000000009</v>
+      </c>
+      <c r="R9" s="5">
+        <v>170.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
@@ -791,8 +857,9 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -801,8 +868,9 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>2006</v>
@@ -849,8 +917,14 @@
       <c r="P13" s="3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>5</v>
       </c>
@@ -899,8 +973,14 @@
       <c r="P14" s="4">
         <v>3828.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="4">
+        <v>5258.3248551520001</v>
+      </c>
+      <c r="R14" s="4">
+        <v>6482.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>6</v>
       </c>
@@ -949,8 +1029,14 @@
       <c r="P15" s="5">
         <v>2501.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5">
+        <v>3223.7754564459988</v>
+      </c>
+      <c r="R15" s="5">
+        <v>3995.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
@@ -999,8 +1085,14 @@
       <c r="P16" s="5">
         <v>1233.4000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5">
+        <v>1888.7255193430001</v>
+      </c>
+      <c r="R16" s="5">
+        <v>2276.8000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>8</v>
       </c>
@@ -1049,13 +1141,20 @@
       <c r="P17" s="5">
         <v>93.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5">
+        <v>145.823879363</v>
+      </c>
+      <c r="R17" s="5">
+        <v>209.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>4</v>
       </c>
@@ -1066,13 +1165,15 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>2006</v>
@@ -1119,8 +1220,14 @@
       <c r="P21" s="3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>5</v>
       </c>
@@ -1169,8 +1276,14 @@
       <c r="P22" s="7">
         <v>68089.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="7">
+        <v>72973.471604085003</v>
+      </c>
+      <c r="R22" s="7">
+        <v>75232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>6</v>
       </c>
@@ -1219,8 +1332,14 @@
       <c r="P23" s="8">
         <v>49304.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="8">
+        <v>52200.011011387993</v>
+      </c>
+      <c r="R23" s="8">
+        <v>53662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>7</v>
       </c>
@@ -1269,8 +1388,14 @@
       <c r="P24" s="8">
         <v>14797</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="8">
+        <v>16315.13639689</v>
+      </c>
+      <c r="R24" s="8">
+        <v>16552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>8</v>
       </c>
@@ -1319,26 +1444,35 @@
       <c r="P25" s="8">
         <v>3988</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q25" s="8">
+        <v>4458.3241958070003</v>
+      </c>
+      <c r="R25" s="8">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>2006</v>
@@ -1385,8 +1519,14 @@
       <c r="P29" s="3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>5</v>
       </c>
@@ -1435,8 +1575,14 @@
       <c r="P30" s="4">
         <v>995.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="4">
+        <v>1080.5999999999999</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>6</v>
       </c>
@@ -1485,8 +1631,14 @@
       <c r="P31" s="5">
         <v>884.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="5">
+        <v>1010.6</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1116.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>7</v>
       </c>
@@ -1535,8 +1687,14 @@
       <c r="P32" s="5">
         <v>1310.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="5">
+        <v>1233</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1604.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>8</v>
       </c>
@@ -1584,6 +1742,12 @@
       </c>
       <c r="P33" s="5">
         <v>1040.7</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1218.5</v>
+      </c>
+      <c r="R33" s="5">
+        <v>1532.8</v>
       </c>
     </row>
   </sheetData>
